--- a/documentation/Data_Reduction.xlsx
+++ b/documentation/Data_Reduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\BRFSS\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2B219F-D9AF-44DA-BB15-765585184C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473E42B4-C687-45D6-BB6C-AF17D960ABA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15675" yWindow="-16320" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10500" yWindow="-13695" windowWidth="23340" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Exclusion</t>
   </si>
@@ -224,23 +224,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,95 +1022,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="20.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>437436</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <f>A2-D2</f>
         <v>381382</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>56054</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <f>D2</f>
         <v>56054</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <f>A3-D3</f>
         <v>2392</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>53662</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <f>D3</f>
         <v>53662</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <f>A4-D4</f>
         <v>518</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>53144</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <f>D4</f>
         <v>53144</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f>A5-D5</f>
         <v>160</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>52984</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I6" s="15"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="17"/>
+      <c r="D9" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1145,7 +1145,7 @@
       <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
-      <c r="C4" s="12"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="7"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1166,7 +1166,7 @@
         <f>"n = "&amp;TEXT(Worksheet!A2,"#,###")</f>
         <v>n = 437,436</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="8" t="str">
         <f>"n = "&amp;TEXT(Worksheet!C2,"#,###")</f>
         <v>n = 381,382</v>
@@ -1205,7 +1205,7 @@
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="7"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1226,7 +1226,7 @@
         <f>"n = "&amp;TEXT(Worksheet!D2,"#,###")</f>
         <v>n = 56,054</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="8" t="str">
         <f>"n = "&amp;TEXT(Worksheet!C3,"#,###")</f>
         <v>n = 2,392</v>
@@ -1265,7 +1265,7 @@
       <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1286,7 +1286,7 @@
         <f>"n = "&amp;TEXT(Worksheet!D3,"#,###")</f>
         <v>n = 53,662</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="8" t="str">
         <f>"n = "&amp;TEXT(Worksheet!C4,"#,###")</f>
         <v>n = 518</v>
@@ -1321,14 +1321,14 @@
       <c r="B21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1336,7 +1336,7 @@
         <f>"n = "&amp;TEXT(Worksheet!D4,"#,###")</f>
         <v>n = 53,144</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="8" t="str">
         <f>"n = "&amp;TEXT(Worksheet!C5,"#,###")</f>
         <v>n = 160</v>
